--- a/scenario_parameters.xlsx
+++ b/scenario_parameters.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\LuisLlases\Desktop\Tareas Arturo\MORDRED_1.0\scenario_parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\LuisLlases\Desktop\Tareas Arturo\scenario_parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EE3848-DD37-402E-B90E-2EEF9A7EE1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD16DAC-55BA-48ED-90DB-BA0EAFEEE9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <definedName name="ALPHA_DAMAGE_LABOUR_SUPPLY">Labour!$D$24</definedName>
     <definedName name="ALPHA_DEPENDENT_POPULATION">Population!$D$11</definedName>
     <definedName name="ALPHA_LAND_SUBSISTENCE_DAMAGE">Land!$D$38</definedName>
-    <definedName name="ALPHA_OUTPUT_LOSSES_A_MATRIX">Economy!$D$87</definedName>
+    <definedName name="ALPHA_OUTPUT_LOSSES_A_MATRIX">Economy!$D$89</definedName>
     <definedName name="ALPHA_SUPPORTING_INDUSTRY">Population!$D$12</definedName>
     <definedName name="Amatrix_2019">#REF!</definedName>
     <definedName name="AMOUNT_OF_LAND_TO_PROTECT">Land!$D$20:$L$20</definedName>
@@ -48,7 +48,7 @@
     <definedName name="BETA_1_SUBSISTENCE_TO_FORMAL_ECONOMY">Population!$D$5</definedName>
     <definedName name="BETA_2_SSP">Economy!#REF!</definedName>
     <definedName name="BETA_3_SSP">Economy!#REF!</definedName>
-    <definedName name="BETA_OUTPUT_LOSSES_A_MATRIX">Economy!$D$88</definedName>
+    <definedName name="BETA_OUTPUT_LOSSES_A_MATRIX">Economy!$D$90</definedName>
     <definedName name="BETA1_SSP">Economy!#REF!</definedName>
     <definedName name="CAPITAL_INTENSITY_2100">Economy!$D$62:$AB$62</definedName>
     <definedName name="consumption_vectors_2019">#REF!</definedName>
@@ -70,7 +70,7 @@
     <definedName name="G">#REF!</definedName>
     <definedName name="G_reduction_lot_ff">#REF!</definedName>
     <definedName name="G_reduction_lot_nuc">#REF!</definedName>
-    <definedName name="GAMMA_OUTPUT_LOSSES_A_MATRIX">Economy!$D$89</definedName>
+    <definedName name="GAMMA_OUTPUT_LOSSES_A_MATRIX">Economy!$D$91</definedName>
     <definedName name="growth_rate_consumption_per_class">#REF!</definedName>
     <definedName name="infrastructure_intensity_2019">#REF!</definedName>
     <definedName name="INITIAL_RECOVERABLE_RESOURCES_OF_FOSSIL_FUELS">Energy!$D$9</definedName>
@@ -83,7 +83,7 @@
     <definedName name="MAXIMUM_SHARE_OF_EXTRACTABLE_FOSSIL_FUEL_RESOURCES_PER_YEAR_SP">Energy!$D$5</definedName>
     <definedName name="other_land_improvement_factor">#REF!</definedName>
     <definedName name="other_land_intensity_center_2019">#REF!</definedName>
-    <definedName name="OUTPUT_LOSSES_FACTOR">Economy!$D$82:$AB$82</definedName>
+    <definedName name="OUTPUT_LOSSES_FACTOR">Economy!$D$83:$AB$83</definedName>
     <definedName name="PEXTRA_DEMAND_MP">Economy!$D$41:$P$41</definedName>
     <definedName name="PEXTRA_FOODLAND_FOREST_MP">Land!#REF!</definedName>
     <definedName name="PEXTRA_LAND_MP">Land!$D$15:$L$15</definedName>
@@ -141,9 +141,9 @@
     <definedName name="TARGET_WATER_WITHDRAWAL_INDUSTRIAL_INTENSITY_SP">Stressors!$D$19:$AB$19</definedName>
     <definedName name="TARGET_WATER_WITHDRAWAL_INTENSITY_OF_HOUSEHOLD_SP">Stressors!$D$24</definedName>
     <definedName name="Temperature_Threshold_for_Methane_Emissions_from_Permafrost_and_Clathrate">Climate!$D$6</definedName>
-    <definedName name="TOTAL_EXTRA_INVESTMENT_DUE_TO_SEA_LEVEL_RISE">Economy!$D$78:$AB$78</definedName>
+    <definedName name="TOTAL_EXTRA_INVESTMENT_DUE_TO_SEA_LEVEL_RISE">Economy!$D$79:$AB$79</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -700,18 +700,12 @@
     <t>Growth rate of per capita consumption by region and class.</t>
   </si>
   <si>
-    <t>INITIAL SECTORAL GOVERNMENT CONSUMPTION SHARE</t>
-  </si>
-  <si>
     <t>Share by sector</t>
   </si>
   <si>
     <t>Share of each sector in government consumption in 2100.</t>
   </si>
   <si>
-    <t>INITIAL SECTORAL GROSS FIXED CAPITAL FORMATION SHARE</t>
-  </si>
-  <si>
     <t>Share of each sector in gross fixed capital formation in 2100.</t>
   </si>
   <si>
@@ -923,6 +917,12 @@
   </si>
   <si>
     <t>SWITCHES</t>
+  </si>
+  <si>
+    <t>TARGET SECTORAL GOVERNMENT CONSUMPTION SHARE</t>
+  </si>
+  <si>
+    <t>TARGET SECTORAL GROSS FIXED CAPITAL FORMATION SHARE</t>
   </si>
 </sst>
 </file>
@@ -2806,7 +2806,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BC114"/>
+  <dimension ref="A1:BC116"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2824,7 +2824,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="87" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5265,7 +5265,7 @@
     </row>
     <row r="43" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="83" t="s">
-        <v>178</v>
+        <v>251</v>
       </c>
       <c r="Q43" s="43"/>
       <c r="R43" s="43"/>
@@ -5374,10 +5374,10 @@
     </row>
     <row r="45" spans="1:36" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="84" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" s="122" t="s">
         <v>179</v>
-      </c>
-      <c r="B45" s="122" t="s">
-        <v>180</v>
       </c>
       <c r="C45" s="85" t="s">
         <v>38</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="47" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="83" t="s">
-        <v>181</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:36" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5549,10 +5549,10 @@
     </row>
     <row r="49" spans="1:29" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="84" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B49" s="122" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C49" s="123" t="s">
         <v>38</v>
@@ -5754,7 +5754,7 @@
     </row>
     <row r="53" spans="1:29" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="150" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B53" s="62" t="s">
         <v>107</v>
@@ -5763,7 +5763,7 @@
         <v>108</v>
       </c>
       <c r="D53" s="141" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E53" s="21">
         <v>0.18354083586463174</v>
@@ -5926,7 +5926,7 @@
     </row>
     <row r="55" spans="1:29" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="150" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B55" s="62" t="s">
         <v>107</v>
@@ -6353,10 +6353,10 @@
     </row>
     <row r="62" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="58" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B62" s="125" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C62" s="107" t="s">
         <v>38</v>
@@ -6597,7 +6597,7 @@
         <v>75</v>
       </c>
       <c r="B73" s="143" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C73" s="32" t="s">
         <v>38</v>
@@ -6767,449 +6767,422 @@
       <c r="B75" s="43"/>
       <c r="D75" s="71"/>
     </row>
-    <row r="76" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="1" t="s">
+    <row r="77" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="77" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="1"/>
-      <c r="B77" s="116" t="s">
+    <row r="78" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1"/>
+      <c r="B78" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D77" s="19">
+      <c r="D78" s="19">
         <v>1</v>
       </c>
-      <c r="E77" s="19">
+      <c r="E78" s="19">
         <v>2</v>
       </c>
-      <c r="F77" s="19">
+      <c r="F78" s="19">
         <v>3</v>
       </c>
-      <c r="G77" s="19">
+      <c r="G78" s="19">
         <v>4</v>
       </c>
-      <c r="H77" s="19">
+      <c r="H78" s="19">
         <v>5</v>
       </c>
-      <c r="I77" s="19">
+      <c r="I78" s="19">
         <v>6</v>
       </c>
-      <c r="J77" s="19">
+      <c r="J78" s="19">
         <v>7</v>
       </c>
-      <c r="K77" s="19">
+      <c r="K78" s="19">
         <v>8</v>
       </c>
-      <c r="L77" s="19">
+      <c r="L78" s="19">
         <v>9</v>
       </c>
-      <c r="M77" s="19">
+      <c r="M78" s="19">
         <v>10</v>
       </c>
-      <c r="N77" s="19">
+      <c r="N78" s="19">
         <v>11</v>
       </c>
-      <c r="O77" s="19">
+      <c r="O78" s="19">
         <v>12</v>
       </c>
-      <c r="P77" s="19">
+      <c r="P78" s="19">
         <v>13</v>
       </c>
-      <c r="Q77" s="19">
+      <c r="Q78" s="19">
         <v>14</v>
       </c>
-      <c r="R77" s="19">
+      <c r="R78" s="19">
         <v>15</v>
       </c>
-      <c r="S77" s="19">
+      <c r="S78" s="19">
         <v>16</v>
       </c>
-      <c r="T77" s="19">
+      <c r="T78" s="19">
         <v>17</v>
       </c>
-      <c r="U77" s="19">
+      <c r="U78" s="19">
         <v>18</v>
       </c>
-      <c r="V77" s="18">
+      <c r="V78" s="18">
         <v>19</v>
       </c>
-      <c r="W77" s="19">
+      <c r="W78" s="19">
         <v>20</v>
       </c>
-      <c r="X77" s="19">
+      <c r="X78" s="19">
         <v>21</v>
       </c>
-      <c r="Y77" s="19">
+      <c r="Y78" s="19">
         <v>22</v>
       </c>
-      <c r="Z77" s="19">
+      <c r="Z78" s="19">
         <v>23</v>
       </c>
-      <c r="AA77" s="19">
+      <c r="AA78" s="19">
         <v>24</v>
       </c>
-      <c r="AB77" s="26">
+      <c r="AB78" s="26">
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:28" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="2" t="s">
+    <row r="79" spans="1:28" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B78" s="110" t="s">
+      <c r="B79" s="110" t="s">
+        <v>187</v>
+      </c>
+      <c r="C79" s="107" t="s">
+        <v>78</v>
+      </c>
+      <c r="D79" s="130">
+        <v>0</v>
+      </c>
+      <c r="E79" s="86">
+        <v>0</v>
+      </c>
+      <c r="F79" s="86">
+        <v>0</v>
+      </c>
+      <c r="G79" s="86">
+        <v>0</v>
+      </c>
+      <c r="H79" s="86">
+        <v>166000</v>
+      </c>
+      <c r="I79" s="86">
+        <v>0</v>
+      </c>
+      <c r="J79" s="86">
+        <v>0</v>
+      </c>
+      <c r="K79" s="86">
+        <v>0</v>
+      </c>
+      <c r="L79" s="86">
+        <v>0</v>
+      </c>
+      <c r="M79" s="86">
+        <v>0</v>
+      </c>
+      <c r="N79" s="86">
+        <v>0</v>
+      </c>
+      <c r="O79" s="86">
+        <v>0</v>
+      </c>
+      <c r="P79" s="86">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="86">
+        <v>0</v>
+      </c>
+      <c r="R79" s="86">
+        <v>0</v>
+      </c>
+      <c r="S79" s="86">
+        <v>0</v>
+      </c>
+      <c r="T79" s="86">
+        <v>0</v>
+      </c>
+      <c r="U79" s="86">
+        <v>0</v>
+      </c>
+      <c r="V79" s="86">
+        <v>0</v>
+      </c>
+      <c r="W79" s="86">
+        <v>0</v>
+      </c>
+      <c r="X79" s="86">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="86">
+        <v>0</v>
+      </c>
+      <c r="Z79" s="86">
+        <v>0</v>
+      </c>
+      <c r="AA79" s="86">
+        <v>0</v>
+      </c>
+      <c r="AB79" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="66" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1"/>
+      <c r="B82" s="116" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" s="18">
+        <v>1</v>
+      </c>
+      <c r="E82" s="19">
+        <v>2</v>
+      </c>
+      <c r="F82" s="19">
+        <v>3</v>
+      </c>
+      <c r="G82" s="19">
+        <v>4</v>
+      </c>
+      <c r="H82" s="19">
+        <v>5</v>
+      </c>
+      <c r="I82" s="19">
+        <v>6</v>
+      </c>
+      <c r="J82" s="19">
+        <v>7</v>
+      </c>
+      <c r="K82" s="19">
+        <v>8</v>
+      </c>
+      <c r="L82" s="19">
+        <v>9</v>
+      </c>
+      <c r="M82" s="19">
+        <v>10</v>
+      </c>
+      <c r="N82" s="19">
+        <v>11</v>
+      </c>
+      <c r="O82" s="19">
+        <v>12</v>
+      </c>
+      <c r="P82" s="19">
+        <v>13</v>
+      </c>
+      <c r="Q82" s="19">
+        <v>14</v>
+      </c>
+      <c r="R82" s="19">
+        <v>15</v>
+      </c>
+      <c r="S82" s="19">
+        <v>16</v>
+      </c>
+      <c r="T82" s="19">
+        <v>17</v>
+      </c>
+      <c r="U82" s="19">
+        <v>18</v>
+      </c>
+      <c r="V82" s="18">
+        <v>19</v>
+      </c>
+      <c r="W82" s="19">
+        <v>20</v>
+      </c>
+      <c r="X82" s="19">
+        <v>21</v>
+      </c>
+      <c r="Y82" s="19">
+        <v>22</v>
+      </c>
+      <c r="Z82" s="19">
+        <v>23</v>
+      </c>
+      <c r="AA82" s="19">
+        <v>24</v>
+      </c>
+      <c r="AB82" s="26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B83" s="110" t="s">
         <v>189</v>
       </c>
-      <c r="C78" s="107" t="s">
-        <v>78</v>
-      </c>
-      <c r="D78" s="130">
-        <v>0</v>
-      </c>
-      <c r="E78" s="86">
-        <v>0</v>
-      </c>
-      <c r="F78" s="86">
-        <v>0</v>
-      </c>
-      <c r="G78" s="86">
-        <v>0</v>
-      </c>
-      <c r="H78" s="86">
-        <v>166000</v>
-      </c>
-      <c r="I78" s="86">
-        <v>0</v>
-      </c>
-      <c r="J78" s="86">
-        <v>0</v>
-      </c>
-      <c r="K78" s="86">
-        <v>0</v>
-      </c>
-      <c r="L78" s="86">
-        <v>0</v>
-      </c>
-      <c r="M78" s="86">
-        <v>0</v>
-      </c>
-      <c r="N78" s="86">
-        <v>0</v>
-      </c>
-      <c r="O78" s="86">
-        <v>0</v>
-      </c>
-      <c r="P78" s="86">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="86">
-        <v>0</v>
-      </c>
-      <c r="R78" s="86">
-        <v>0</v>
-      </c>
-      <c r="S78" s="86">
-        <v>0</v>
-      </c>
-      <c r="T78" s="86">
-        <v>0</v>
-      </c>
-      <c r="U78" s="86">
-        <v>0</v>
-      </c>
-      <c r="V78" s="86">
-        <v>0</v>
-      </c>
-      <c r="W78" s="86">
-        <v>0</v>
-      </c>
-      <c r="X78" s="86">
-        <v>0</v>
-      </c>
-      <c r="Y78" s="86">
-        <v>0</v>
-      </c>
-      <c r="Z78" s="86">
-        <v>0</v>
-      </c>
-      <c r="AA78" s="86">
-        <v>0</v>
-      </c>
-      <c r="AB78" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="66" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="1"/>
-      <c r="B81" s="116" t="s">
+      <c r="C83" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="D83" s="86">
+        <v>0.27</v>
+      </c>
+      <c r="E83" s="86">
+        <v>0</v>
+      </c>
+      <c r="F83" s="86">
+        <v>0</v>
+      </c>
+      <c r="G83" s="86">
+        <v>0</v>
+      </c>
+      <c r="H83" s="86">
+        <v>0</v>
+      </c>
+      <c r="I83" s="86">
+        <v>0</v>
+      </c>
+      <c r="J83" s="86">
+        <v>0</v>
+      </c>
+      <c r="K83" s="86">
+        <v>0</v>
+      </c>
+      <c r="L83" s="86">
+        <v>0</v>
+      </c>
+      <c r="M83" s="86">
+        <v>0</v>
+      </c>
+      <c r="N83" s="86">
+        <v>0</v>
+      </c>
+      <c r="O83" s="86">
+        <v>0</v>
+      </c>
+      <c r="P83" s="86">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="86">
+        <v>0</v>
+      </c>
+      <c r="R83" s="86">
+        <v>0</v>
+      </c>
+      <c r="S83" s="86">
+        <v>0</v>
+      </c>
+      <c r="T83" s="86">
+        <v>0</v>
+      </c>
+      <c r="U83" s="86">
+        <v>0</v>
+      </c>
+      <c r="V83" s="86">
+        <v>0</v>
+      </c>
+      <c r="W83" s="86">
+        <v>0</v>
+      </c>
+      <c r="X83" s="86">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="86">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="86">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="86">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="66" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C87" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="18">
-        <v>1</v>
-      </c>
-      <c r="E81" s="19">
-        <v>2</v>
-      </c>
-      <c r="F81" s="19">
-        <v>3</v>
-      </c>
-      <c r="G81" s="19">
-        <v>4</v>
-      </c>
-      <c r="H81" s="19">
-        <v>5</v>
-      </c>
-      <c r="I81" s="19">
-        <v>6</v>
-      </c>
-      <c r="J81" s="19">
-        <v>7</v>
-      </c>
-      <c r="K81" s="19">
-        <v>8</v>
-      </c>
-      <c r="L81" s="19">
-        <v>9</v>
-      </c>
-      <c r="M81" s="19">
-        <v>10</v>
-      </c>
-      <c r="N81" s="19">
-        <v>11</v>
-      </c>
-      <c r="O81" s="19">
-        <v>12</v>
-      </c>
-      <c r="P81" s="19">
-        <v>13</v>
-      </c>
-      <c r="Q81" s="19">
-        <v>14</v>
-      </c>
-      <c r="R81" s="19">
-        <v>15</v>
-      </c>
-      <c r="S81" s="19">
-        <v>16</v>
-      </c>
-      <c r="T81" s="19">
-        <v>17</v>
-      </c>
-      <c r="U81" s="19">
-        <v>18</v>
-      </c>
-      <c r="V81" s="18">
-        <v>19</v>
-      </c>
-      <c r="W81" s="19">
-        <v>20</v>
-      </c>
-      <c r="X81" s="19">
-        <v>21</v>
-      </c>
-      <c r="Y81" s="19">
-        <v>22</v>
-      </c>
-      <c r="Z81" s="19">
-        <v>23</v>
-      </c>
-      <c r="AA81" s="19">
-        <v>24</v>
-      </c>
-      <c r="AB81" s="26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="82" spans="1:28" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="2" t="s">
+      <c r="D87" s="79" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="B88" s="144" t="s">
         <v>190</v>
       </c>
-      <c r="B82" s="110" t="s">
-        <v>191</v>
-      </c>
-      <c r="C82" s="107" t="s">
+      <c r="C88" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="D82" s="86">
-        <v>0.27</v>
-      </c>
-      <c r="E82" s="86">
-        <v>0</v>
-      </c>
-      <c r="F82" s="86">
-        <v>0</v>
-      </c>
-      <c r="G82" s="86">
-        <v>0</v>
-      </c>
-      <c r="H82" s="86">
-        <v>0</v>
-      </c>
-      <c r="I82" s="86">
-        <v>0</v>
-      </c>
-      <c r="J82" s="86">
-        <v>0</v>
-      </c>
-      <c r="K82" s="86">
-        <v>0</v>
-      </c>
-      <c r="L82" s="86">
-        <v>0</v>
-      </c>
-      <c r="M82" s="86">
-        <v>0</v>
-      </c>
-      <c r="N82" s="86">
-        <v>0</v>
-      </c>
-      <c r="O82" s="86">
-        <v>0</v>
-      </c>
-      <c r="P82" s="86">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="86">
-        <v>0</v>
-      </c>
-      <c r="R82" s="86">
-        <v>0</v>
-      </c>
-      <c r="S82" s="86">
-        <v>0</v>
-      </c>
-      <c r="T82" s="86">
-        <v>0</v>
-      </c>
-      <c r="U82" s="86">
-        <v>0</v>
-      </c>
-      <c r="V82" s="86">
-        <v>0</v>
-      </c>
-      <c r="W82" s="86">
-        <v>0</v>
-      </c>
-      <c r="X82" s="86">
-        <v>0</v>
-      </c>
-      <c r="Y82" s="86">
-        <v>0</v>
-      </c>
-      <c r="Z82" s="86">
-        <v>0</v>
-      </c>
-      <c r="AA82" s="86">
-        <v>0</v>
-      </c>
-      <c r="AB82" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="85" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D85" s="79" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="86" spans="1:28" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="B86" s="144" t="s">
-        <v>192</v>
-      </c>
-      <c r="C86" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="D86" s="128">
+      <c r="D88" s="128">
         <f>1/(1-OUTPUT_LOSSES_FACTOR)</f>
         <v>1.3698630136986301</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A87" s="131" t="s">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A89" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="B87" s="144"/>
-      <c r="C87" s="37" t="s">
+      <c r="B89" s="144"/>
+      <c r="C89" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D87" s="68">
+      <c r="D89" s="68">
         <v>5.4712999999999998E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A88" s="131" t="s">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A90" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="B88" s="144"/>
-      <c r="C88" s="37" t="s">
+      <c r="B90" s="144"/>
+      <c r="C90" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D88" s="68">
+      <c r="D90" s="68">
         <v>0.153196</v>
       </c>
     </row>
-    <row r="89" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="46" t="s">
+    <row r="91" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B89" s="145"/>
-      <c r="C89" s="42" t="s">
+      <c r="B91" s="145"/>
+      <c r="C91" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D89" s="69">
+      <c r="D91" s="69">
         <v>1.107237</v>
       </c>
-    </row>
-    <row r="101" spans="36:55" x14ac:dyDescent="0.3">
-      <c r="AJ101" s="51"/>
-      <c r="AK101" s="51"/>
-      <c r="AL101" s="51"/>
-      <c r="AM101" s="51"/>
-      <c r="AN101" s="51"/>
-      <c r="AO101" s="51"/>
-      <c r="AP101" s="51"/>
-      <c r="AQ101" s="51"/>
-      <c r="AW101" s="51"/>
-      <c r="AX101" s="51"/>
-      <c r="AY101" s="51"/>
-      <c r="AZ101" s="51"/>
-      <c r="BA101" s="51"/>
-      <c r="BB101" s="51"/>
-      <c r="BC101" s="51"/>
-    </row>
-    <row r="102" spans="36:55" x14ac:dyDescent="0.3">
-      <c r="AJ102" s="51"/>
-      <c r="AK102" s="51"/>
-      <c r="AL102" s="51"/>
-      <c r="AM102" s="51"/>
-      <c r="AN102" s="51"/>
-      <c r="AO102" s="51"/>
-      <c r="AP102" s="51"/>
-      <c r="AQ102" s="51"/>
     </row>
     <row r="103" spans="36:55" x14ac:dyDescent="0.3">
       <c r="AJ103" s="51"/>
@@ -7220,6 +7193,13 @@
       <c r="AO103" s="51"/>
       <c r="AP103" s="51"/>
       <c r="AQ103" s="51"/>
+      <c r="AW103" s="51"/>
+      <c r="AX103" s="51"/>
+      <c r="AY103" s="51"/>
+      <c r="AZ103" s="51"/>
+      <c r="BA103" s="51"/>
+      <c r="BB103" s="51"/>
+      <c r="BC103" s="51"/>
     </row>
     <row r="104" spans="36:55" x14ac:dyDescent="0.3">
       <c r="AJ104" s="51"/>
@@ -7300,13 +7280,6 @@
       <c r="AO111" s="51"/>
       <c r="AP111" s="51"/>
       <c r="AQ111" s="51"/>
-      <c r="AW111" s="51"/>
-      <c r="AX111" s="51"/>
-      <c r="AY111" s="51"/>
-      <c r="AZ111" s="51"/>
-      <c r="BA111" s="51"/>
-      <c r="BB111" s="51"/>
-      <c r="BC111" s="51"/>
     </row>
     <row r="112" spans="36:55" x14ac:dyDescent="0.3">
       <c r="AJ112" s="51"/>
@@ -7317,13 +7290,6 @@
       <c r="AO112" s="51"/>
       <c r="AP112" s="51"/>
       <c r="AQ112" s="51"/>
-      <c r="AW112" s="51"/>
-      <c r="AX112" s="51"/>
-      <c r="AY112" s="51"/>
-      <c r="AZ112" s="51"/>
-      <c r="BA112" s="51"/>
-      <c r="BB112" s="51"/>
-      <c r="BC112" s="51"/>
     </row>
     <row r="113" spans="36:55" x14ac:dyDescent="0.3">
       <c r="AJ113" s="51"/>
@@ -7359,19 +7325,53 @@
       <c r="BB114" s="51"/>
       <c r="BC114" s="51"/>
     </row>
+    <row r="115" spans="36:55" x14ac:dyDescent="0.3">
+      <c r="AJ115" s="51"/>
+      <c r="AK115" s="51"/>
+      <c r="AL115" s="51"/>
+      <c r="AM115" s="51"/>
+      <c r="AN115" s="51"/>
+      <c r="AO115" s="51"/>
+      <c r="AP115" s="51"/>
+      <c r="AQ115" s="51"/>
+      <c r="AW115" s="51"/>
+      <c r="AX115" s="51"/>
+      <c r="AY115" s="51"/>
+      <c r="AZ115" s="51"/>
+      <c r="BA115" s="51"/>
+      <c r="BB115" s="51"/>
+      <c r="BC115" s="51"/>
+    </row>
+    <row r="116" spans="36:55" x14ac:dyDescent="0.3">
+      <c r="AJ116" s="51"/>
+      <c r="AK116" s="51"/>
+      <c r="AL116" s="51"/>
+      <c r="AM116" s="51"/>
+      <c r="AN116" s="51"/>
+      <c r="AO116" s="51"/>
+      <c r="AP116" s="51"/>
+      <c r="AQ116" s="51"/>
+      <c r="AW116" s="51"/>
+      <c r="AX116" s="51"/>
+      <c r="AY116" s="51"/>
+      <c r="AZ116" s="51"/>
+      <c r="BA116" s="51"/>
+      <c r="BB116" s="51"/>
+      <c r="BC116" s="51"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D53:D58"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C53:C58"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="A57:A58"/>
+    <mergeCell ref="D53:D58"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C53:C58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7394,7 +7394,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="29.4" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="87" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7487,13 +7487,13 @@
     </row>
     <row r="5" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="84" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="132" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="108" t="s">
         <v>196</v>
-      </c>
-      <c r="B5" s="132" t="s">
-        <v>197</v>
-      </c>
-      <c r="C5" s="108" t="s">
-        <v>198</v>
       </c>
       <c r="D5" s="73">
         <v>1.306478199678786E-2</v>
@@ -7589,13 +7589,13 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="153" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="111" t="s">
         <v>199</v>
-      </c>
-      <c r="B9" s="153" t="s">
-        <v>200</v>
-      </c>
-      <c r="C9" s="111" t="s">
-        <v>201</v>
       </c>
       <c r="D9" s="59">
         <f>D10*D11*D12</f>
@@ -7608,7 +7608,7 @@
       </c>
       <c r="B10" s="154"/>
       <c r="C10" s="112" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D10" s="60">
         <v>8</v>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="B11" s="154"/>
       <c r="C11" s="112" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D11" s="60">
         <v>5</v>
@@ -7628,11 +7628,11 @@
     </row>
     <row r="12" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B12" s="155"/>
       <c r="C12" s="113" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D12" s="61">
         <v>52</v>
@@ -7659,7 +7659,7 @@
         <v>68</v>
       </c>
       <c r="B16" s="109" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C16" s="27" t="s">
         <v>38</v>
@@ -7759,10 +7759,10 @@
     </row>
     <row r="20" spans="1:28" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B20" s="129" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C20" s="108" t="s">
         <v>38</v>
@@ -7868,10 +7868,10 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B24" s="146" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C24" s="140" t="s">
         <v>38</v>
@@ -7882,7 +7882,7 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B25" s="156"/>
       <c r="C25" s="141"/>
@@ -7924,7 +7924,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="114" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7948,7 +7948,7 @@
         <v>60</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C5" s="27" t="s">
         <v>38</v>
@@ -7976,10 +7976,10 @@
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B9" s="95" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C9" s="98" t="s">
         <v>91</v>
@@ -7993,7 +7993,7 @@
         <v>92</v>
       </c>
       <c r="B10" s="96" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C10" s="99" t="s">
         <v>91</v>
@@ -8004,7 +8004,7 @@
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8023,7 +8023,7 @@
         <v>93</v>
       </c>
       <c r="B14" s="158" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C14" s="47" t="s">
         <v>71</v>
@@ -8185,13 +8185,13 @@
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B5" s="161" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C5" s="170" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D5" s="21">
         <v>0</v>
@@ -8271,7 +8271,7 @@
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B6" s="162"/>
       <c r="C6" s="171"/>
@@ -8608,25 +8608,25 @@
         <v>59</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>58</v>
@@ -8637,7 +8637,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="167" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C12" s="173" t="s">
         <v>38</v>
@@ -8789,25 +8789,25 @@
         <v>59</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="L18" s="5" t="s">
         <v>58</v>
@@ -8818,7 +8818,7 @@
         <v>39</v>
       </c>
       <c r="B19" s="161" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>38</v>
@@ -8908,7 +8908,7 @@
         <v>100</v>
       </c>
       <c r="B24" s="80" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C24" s="81" t="s">
         <v>95</v>
@@ -8935,10 +8935,10 @@
     </row>
     <row r="28" spans="1:12" ht="77.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="84" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B28" s="81" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C28" s="85" t="s">
         <v>98</v>
@@ -8975,10 +8975,10 @@
     </row>
     <row r="32" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B32" s="143" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C32" s="164" t="s">
         <v>98</v>
@@ -8989,7 +8989,7 @@
     </row>
     <row r="33" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B33" s="144"/>
       <c r="C33" s="165"/>
@@ -9000,7 +9000,7 @@
     </row>
     <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B34" s="145"/>
       <c r="C34" s="166"/>
@@ -9011,7 +9011,7 @@
     </row>
     <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9028,10 +9028,10 @@
     </row>
     <row r="38" spans="1:5" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B38" s="81" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C38" s="85" t="s">
         <v>38</v>
@@ -9071,7 +9071,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="114" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9168,7 +9168,7 @@
         <v>133</v>
       </c>
       <c r="B5" s="178" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>134</v>
@@ -9763,7 +9763,7 @@
         <v>144</v>
       </c>
       <c r="B14" s="143" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C14" s="47" t="s">
         <v>145</v>
@@ -10022,7 +10022,7 @@
         <v>147</v>
       </c>
       <c r="B19" s="138" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C19" s="97" t="s">
         <v>145</v>
@@ -10125,7 +10125,7 @@
         <v>149</v>
       </c>
       <c r="B23" s="143" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C23" s="98" t="s">
         <v>145</v>
@@ -10240,7 +10240,7 @@
         <v>151</v>
       </c>
       <c r="B28" s="146" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C28" s="47" t="s">
         <v>152</v>
@@ -10583,7 +10583,7 @@
         <v>155</v>
       </c>
       <c r="B34" s="175" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C34" s="100" t="s">
         <v>152</v>
@@ -10859,7 +10859,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="114" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10881,7 +10881,7 @@
         <v>111</v>
       </c>
       <c r="B4" s="181" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C4" s="47"/>
       <c r="D4" s="63">
@@ -10949,7 +10949,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="114" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -10966,7 +10966,7 @@
         <v>128</v>
       </c>
       <c r="B4" s="184" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C4" s="93">
         <v>0</v>
